--- a/design/Typografy.xlsx
+++ b/design/Typografy.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Documents\TaguaraDigital\Presentacion\insure-landing\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D30C08-A970-406D-A1A1-5D906262AB9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F795B2A3-AA45-4F92-8D0F-993F507A050A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13155" xr2:uid="{0E338F40-9BA5-4BAA-AB30-CE27D78EB2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Subtitle</t>
   </si>
@@ -126,13 +127,22 @@
   </si>
   <si>
     <t>22px (4% letter space)</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>texto</t>
+  </si>
+  <si>
+    <t>complemento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +165,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -170,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -389,19 +406,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -451,6 +502,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,239 +832,239 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.59765625" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="22.59765625" style="2"/>
+    <col min="1" max="16384" width="22.59765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="19" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1010,4 +1073,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC86443-CB2D-4E8F-A837-D2194DEBCB11}">
+  <dimension ref="D3:D10"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="5" width="100.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="4:4" ht="100.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D4" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" ht="100.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" ht="100.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D6" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" ht="100.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="4:4" ht="100.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="4:4" ht="100.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="4:4" ht="100.05" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/design/Typografy.xlsx
+++ b/design/Typografy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Documents\TaguaraDigital\Presentacion\insure-landing\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F795B2A3-AA45-4F92-8D0F-993F507A050A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59768EDA-2A41-4978-A2BC-D8036D9F2506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13155" xr2:uid="{0E338F40-9BA5-4BAA-AB30-CE27D78EB2C6}"/>
   </bookViews>
@@ -503,16 +503,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,7 +832,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.59765625" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -841,14 +841,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
@@ -922,7 +922,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10">
+        <f>58/16</f>
+        <v>3.625</v>
+      </c>
       <c r="F5" s="10" t="s">
         <v>24</v>
       </c>
@@ -1090,17 +1093,17 @@
   <sheetData>
     <row r="3" spans="4:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="4:4" ht="100.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="4:4" ht="100.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="4:4" ht="100.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>33</v>
       </c>
     </row>
